--- a/王函瑜/XueliProject/data/user.xlsx
+++ b/王函瑜/XueliProject/data/user.xlsx
@@ -4,28 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="13511" windowHeight="8112"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:B4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
-    <t>email</t>
+    <t>用户名</t>
   </si>
   <si>
-    <t>password</t>
+    <t>密码</t>
   </si>
   <si>
-    <t>2784038315@qq.com</t>
+    <t>1336448191@qq.com</t>
   </si>
   <si>
-    <t>Zhen0820</t>
+    <t>ZHANGyu123</t>
   </si>
 </sst>
 </file>
@@ -35,8 +38,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,22 +52,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,21 +60,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,6 +74,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -108,24 +120,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,6 +136,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -146,6 +172,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -153,24 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,14 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,25 +203,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,157 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +397,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,30 +422,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -461,24 +453,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +470,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -499,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,133 +514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -645,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +703,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -710,7 +713,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,39 +723,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,131 +834,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -967,16 +999,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -994,12 +1023,49 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="2784038315@qq.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="1336448191@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>